--- a/components/system/src/test-reference/data/org/formulacompiler/tests/reference/StatisticalFunctions.xlsx
+++ b/components/system/src/test-reference/data/org/formulacompiler/tests/reference/StatisticalFunctions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="90" windowWidth="14460" windowHeight="11775"/>
@@ -28,6 +28,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -36,6 +38,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -50,6 +54,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -58,6 +64,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -72,6 +80,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -80,6 +90,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -94,6 +106,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -102,6 +116,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -116,6 +132,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -124,6 +142,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -138,6 +158,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -146,6 +168,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -160,6 +184,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -168,6 +194,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -182,6 +210,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -190,6 +220,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -204,6 +236,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -212,6 +246,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -226,6 +262,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -234,6 +272,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -248,6 +288,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -256,6 +298,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -270,6 +314,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -278,6 +324,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -292,6 +340,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -300,6 +350,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -314,6 +366,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -322,6 +376,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -336,6 +392,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -344,6 +402,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -358,6 +418,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -366,6 +428,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -380,6 +444,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -388,6 +454,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 TODO: Test empty cell</t>
@@ -402,6 +470,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -410,6 +480,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -424,6 +496,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -432,6 +506,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -446,6 +522,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -454,6 +532,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -468,6 +548,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -476,6 +558,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -490,6 +574,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -498,6 +584,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -512,6 +600,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -520,6 +610,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -534,6 +626,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -542,6 +636,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -556,6 +652,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -564,6 +662,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -578,6 +678,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -586,6 +688,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -600,6 +704,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -608,6 +714,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -622,6 +730,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -630,6 +740,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -644,6 +756,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -652,6 +766,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -666,6 +782,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -674,6 +792,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -688,6 +808,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -696,6 +818,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -710,6 +834,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -718,6 +844,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -732,6 +860,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -740,6 +870,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -754,6 +886,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -762,6 +896,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -776,6 +912,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -784,6 +922,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -798,6 +938,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -806,6 +948,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -820,6 +964,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -828,6 +974,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -842,6 +990,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -850,6 +1000,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -864,6 +1016,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -872,6 +1026,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -886,6 +1042,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -894,6 +1052,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -908,6 +1068,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -916,6 +1078,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -930,6 +1094,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -938,6 +1104,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -952,6 +1120,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -960,6 +1130,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -974,6 +1146,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -982,6 +1156,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -996,6 +1172,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1004,6 +1182,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1018,6 +1198,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1026,6 +1208,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1040,6 +1224,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1048,6 +1234,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1062,6 +1250,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1070,6 +1260,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1084,6 +1276,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1092,6 +1286,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1106,6 +1302,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1114,6 +1312,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1128,6 +1328,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1136,6 +1338,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1150,6 +1354,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1158,6 +1364,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1172,6 +1380,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1180,6 +1390,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1194,6 +1406,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1202,6 +1416,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1216,6 +1432,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1224,6 +1442,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1238,6 +1458,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1246,6 +1468,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1260,6 +1484,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1268,6 +1494,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1282,6 +1510,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1290,6 +1520,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1304,6 +1536,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1312,6 +1546,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1326,6 +1562,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1334,6 +1572,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1348,6 +1588,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1356,6 +1598,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1370,6 +1614,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1378,6 +1624,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1392,6 +1640,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1400,6 +1650,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1414,6 +1666,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1422,6 +1676,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1436,6 +1692,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1444,6 +1702,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1458,6 +1718,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1466,6 +1728,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1480,6 +1744,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1488,6 +1754,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1502,6 +1770,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1510,6 +1780,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1524,6 +1796,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1532,6 +1806,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1546,6 +1822,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1554,6 +1832,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1568,6 +1848,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1576,6 +1858,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1590,6 +1874,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1598,6 +1884,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1612,6 +1900,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1620,6 +1910,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1634,6 +1926,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1642,6 +1936,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1656,6 +1952,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1664,6 +1962,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1678,6 +1978,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1686,6 +1988,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1700,6 +2004,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1708,6 +2014,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1722,6 +2030,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1730,6 +2040,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1744,6 +2056,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1752,6 +2066,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1766,6 +2082,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1774,6 +2092,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1788,6 +2108,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1796,6 +2118,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1810,6 +2134,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1818,6 +2144,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1832,6 +2160,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1840,6 +2170,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1854,6 +2186,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1862,6 +2196,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1876,6 +2212,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1884,6 +2222,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1898,6 +2238,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1906,6 +2248,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1920,6 +2264,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1928,6 +2274,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1942,6 +2290,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1950,6 +2300,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1964,6 +2316,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1972,6 +2326,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -1986,6 +2342,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -1994,6 +2352,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2008,6 +2368,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2016,6 +2378,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2030,6 +2394,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2038,6 +2404,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2052,6 +2420,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2060,6 +2430,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2074,6 +2446,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2082,6 +2456,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2096,6 +2472,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2104,6 +2482,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2118,6 +2498,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2126,6 +2508,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2140,6 +2524,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2148,6 +2534,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2162,6 +2550,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2170,6 +2560,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2184,6 +2576,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2192,6 +2586,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2206,6 +2602,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2214,6 +2612,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2228,6 +2628,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2236,6 +2638,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2250,6 +2654,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2258,6 +2664,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2272,6 +2680,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2280,6 +2690,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2294,6 +2706,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2302,6 +2716,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2316,6 +2732,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2324,6 +2742,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2338,6 +2758,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2346,6 +2768,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2360,6 +2784,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2368,6 +2794,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2382,6 +2810,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2390,6 +2820,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2404,6 +2836,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2412,6 +2846,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2426,6 +2862,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2434,6 +2872,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2448,6 +2888,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2456,6 +2898,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2470,6 +2914,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2478,6 +2924,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2492,6 +2940,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2500,6 +2950,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2514,6 +2966,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2522,6 +2976,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2536,6 +2992,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2544,6 +3002,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2558,6 +3018,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2566,6 +3028,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2580,6 +3044,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2588,6 +3054,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2602,6 +3070,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2610,6 +3080,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2624,6 +3096,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2632,6 +3106,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2646,6 +3122,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2654,6 +3132,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2668,6 +3148,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2676,6 +3158,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2690,6 +3174,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2698,6 +3184,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2712,6 +3200,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2720,6 +3210,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2734,6 +3226,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2742,6 +3236,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2756,6 +3252,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2764,6 +3262,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2778,6 +3278,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>vkorenev:</t>
         </r>
@@ -2786,6 +3288,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2800,6 +3304,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2808,6 +3314,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2822,6 +3330,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2830,6 +3340,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2844,6 +3356,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2852,6 +3366,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2866,6 +3382,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2874,6 +3392,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2888,6 +3408,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2896,6 +3418,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2910,6 +3434,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2918,6 +3444,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2932,6 +3460,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2940,6 +3470,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2954,6 +3486,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2962,6 +3496,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2976,6 +3512,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -2984,6 +3522,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -2998,6 +3538,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3006,6 +3548,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3020,6 +3564,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3028,6 +3574,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3042,6 +3590,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3050,6 +3600,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3064,6 +3616,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3072,6 +3626,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3086,6 +3642,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3094,6 +3652,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3108,6 +3668,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3116,6 +3678,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3130,6 +3694,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3138,6 +3704,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3152,6 +3720,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3160,6 +3730,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3174,6 +3746,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3182,6 +3756,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3196,6 +3772,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3204,6 +3782,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3218,6 +3798,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3226,6 +3808,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3240,6 +3824,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3248,6 +3834,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3262,6 +3850,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3270,6 +3860,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3284,6 +3876,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3292,6 +3886,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3306,6 +3902,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3314,6 +3912,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3328,6 +3928,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Samsonov:</t>
         </r>
@@ -3336,6 +3938,8 @@
             <sz val="8"/>
             <color indexed="8"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3350,6 +3954,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>samsonov:</t>
         </r>
@@ -3358,6 +3964,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3372,6 +3980,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>samsonov:</t>
         </r>
@@ -3380,6 +3990,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3394,6 +4006,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>samsonov:</t>
         </r>
@@ -3402,6 +4016,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3416,6 +4032,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>samsonov:</t>
         </r>
@@ -3424,6 +4042,8 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
 Precision problem</t>
@@ -3435,7 +4055,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="86">
   <si>
     <t>Actual</t>
   </si>
@@ -3691,6 +4311,9 @@
   <si>
     <t>Custom check</t>
   </si>
+  <si>
+    <t>SUMPRODUCT</t>
+  </si>
 </sst>
 </file>
 
@@ -3711,6 +4334,8 @@
       <u/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -3724,22 +4349,30 @@
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3777,7 +4410,497 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="75">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="34"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="42"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="29"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4104,10 +5227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z941"/>
+  <dimension ref="A1:Z946"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
+      <selection activeCell="H943" sqref="H943"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -33116,29 +34239,344 @@
         <v>1</v>
       </c>
     </row>
+    <row r="943" spans="1:17">
+      <c r="A943">
+        <v>22</v>
+      </c>
+      <c r="B943">
+        <f>SUMPRODUCT(C943:E943,F943:H943)</f>
+        <v>22</v>
+      </c>
+      <c r="C943">
+        <v>2</v>
+      </c>
+      <c r="D943">
+        <v>3</v>
+      </c>
+      <c r="E943">
+        <v>4</v>
+      </c>
+      <c r="F943">
+        <v>2</v>
+      </c>
+      <c r="G943">
+        <v>2</v>
+      </c>
+      <c r="H943">
+        <v>3</v>
+      </c>
+      <c r="J943" s="1">
+        <v>6</v>
+      </c>
+      <c r="K943" t="s">
+        <v>85</v>
+      </c>
+      <c r="L943" t="s">
+        <v>85</v>
+      </c>
+      <c r="P943" t="b">
+        <f>OR(ISBLANK(B943),IF(ISERROR(B943),ERROR.TYPE(B943)=IF(ISBLANK(M943),ERROR.TYPE(A943),ERROR.TYPE(M943)),IF(ISBLANK(M943),AND(NOT(ISBLANK(A943)),A943=B943),B943=M943)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q943" t="b">
+        <f>IF(ISBLANK(O943),IF(ISERROR(P943),FALSE,P943),O943)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="944" spans="1:17">
+      <c r="A944">
+        <v>12.8</v>
+      </c>
+      <c r="B944">
+        <f>SUMPRODUCT(C944:E944,F944:H944)</f>
+        <v>12.8</v>
+      </c>
+      <c r="C944">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D944">
+        <v>-3.4</v>
+      </c>
+      <c r="E944">
+        <v>4</v>
+      </c>
+      <c r="F944">
+        <v>2</v>
+      </c>
+      <c r="G944">
+        <v>2</v>
+      </c>
+      <c r="H944">
+        <v>3.8</v>
+      </c>
+      <c r="J944" s="1">
+        <v>6</v>
+      </c>
+      <c r="P944" t="b">
+        <f>OR(ISBLANK(B944),IF(ISERROR(B944),ERROR.TYPE(B944)=IF(ISBLANK(M944),ERROR.TYPE(A944),ERROR.TYPE(M944)),IF(ISBLANK(M944),AND(NOT(ISBLANK(A944)),A944=B944),B944=M944)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q944" t="b">
+        <f>IF(ISBLANK(O944),IF(ISERROR(P944),FALSE,P944),O944)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:17">
+      <c r="A945">
+        <v>47.6</v>
+      </c>
+      <c r="B945">
+        <f>SUMPRODUCT(C943:E945,F943:H945)</f>
+        <v>47.599999999999994</v>
+      </c>
+      <c r="C945">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D945">
+        <v>-3.4</v>
+      </c>
+      <c r="E945">
+        <v>4</v>
+      </c>
+      <c r="F945">
+        <v>2</v>
+      </c>
+      <c r="G945">
+        <v>2</v>
+      </c>
+      <c r="H945">
+        <v>3.8</v>
+      </c>
+      <c r="J945" s="1">
+        <v>6</v>
+      </c>
+      <c r="P945" t="b">
+        <f>OR(ISBLANK(B945),IF(ISERROR(B945),ERROR.TYPE(B945)=IF(ISBLANK(M945),ERROR.TYPE(A945),ERROR.TYPE(M945)),IF(ISBLANK(M945),AND(NOT(ISBLANK(A945)),A945=B945),B945=M945)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q945" t="b">
+        <f>IF(ISBLANK(O945),IF(ISERROR(P945),FALSE,P945),O945)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="946" spans="1:17">
+      <c r="A946" t="s">
+        <v>81</v>
+      </c>
+      <c r="B946" t="e">
+        <f>SUMPRODUCT(C946:E946,F946:G946)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C946">
+        <v>2</v>
+      </c>
+      <c r="D946">
+        <v>3</v>
+      </c>
+      <c r="E946">
+        <v>4</v>
+      </c>
+      <c r="F946">
+        <v>2</v>
+      </c>
+      <c r="G946">
+        <v>2</v>
+      </c>
+      <c r="J946" s="1">
+        <v>5</v>
+      </c>
+      <c r="M946" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P946" t="b">
+        <f>OR(ISBLANK(B946),IF(ISERROR(B946),ERROR.TYPE(B946)=IF(ISBLANK(M946),ERROR.TYPE(A946),ERROR.TYPE(M946)),IF(ISBLANK(M946),AND(NOT(ISBLANK(A946)),A946=B946),B946=M946)))</f>
+        <v>1</v>
+      </c>
+      <c r="Q946" t="b">
+        <f>IF(ISBLANK(O946),IF(ISERROR(P946),FALSE,P946),O946)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="4" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="36" stopIfTrue="1">
       <formula>NOT(Q1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A10000">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="37" stopIfTrue="1">
       <formula>NOT(OR(ISBLANK(Q2),Q2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="38" stopIfTrue="1">
       <formula>NOT(AND(ISBLANK(M2),ISBLANK(O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:I10000">
-    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="39" stopIfTrue="1">
       <formula>$J2&gt;COLUMN(C2)-3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M10000">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="40" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK(M2)),IF(ISERROR(A2),ERROR.TYPE(A2)=ERROR.TYPE(M2),A2=M2))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A943:A946">
+    <cfRule type="expression" dxfId="69" priority="34" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q943),Q943))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="35" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M943),ISBLANK(O943)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C943:I946">
+    <cfRule type="expression" dxfId="65" priority="33" stopIfTrue="1">
+      <formula>$J943&gt;COLUMN(C943)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M943:M946">
+    <cfRule type="expression" dxfId="63" priority="32" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M943)),IF(ISERROR(A943),ERROR.TYPE(A943)=ERROR.TYPE(M943),A943=M943))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A943:A946">
+    <cfRule type="expression" dxfId="61" priority="30" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q943),Q943))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="31" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M943),ISBLANK(O943)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C943:I946">
+    <cfRule type="expression" dxfId="57" priority="29" stopIfTrue="1">
+      <formula>$J943&gt;COLUMN(C943)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M943:M946">
+    <cfRule type="expression" dxfId="55" priority="28" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M943)),IF(ISERROR(A943),ERROR.TYPE(A943)=ERROR.TYPE(M943),A943=M943))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A943:A944">
+    <cfRule type="expression" dxfId="53" priority="26" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q943),Q943))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="27" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M943),ISBLANK(O943)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C943:I944">
+    <cfRule type="expression" dxfId="49" priority="25" stopIfTrue="1">
+      <formula>$J943&gt;COLUMN(C943)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M943:M944">
+    <cfRule type="expression" dxfId="47" priority="24" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M943)),IF(ISERROR(A943),ERROR.TYPE(A943)=ERROR.TYPE(M943),A943=M943))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A945">
+    <cfRule type="expression" dxfId="45" priority="22" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q945),Q945))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="23" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M945),ISBLANK(O945)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C945:I945">
+    <cfRule type="expression" dxfId="41" priority="21" stopIfTrue="1">
+      <formula>$J945&gt;COLUMN(C945)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M945">
+    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M945)),IF(ISERROR(A945),ERROR.TYPE(A945)=ERROR.TYPE(M945),A945=M945))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A946">
+    <cfRule type="expression" dxfId="37" priority="18" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q946),Q946))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="19" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M946),ISBLANK(O946)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C946:I946">
+    <cfRule type="expression" dxfId="33" priority="17" stopIfTrue="1">
+      <formula>$J946&gt;COLUMN(C946)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M946">
+    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M946)),IF(ISERROR(A946),ERROR.TYPE(A946)=ERROR.TYPE(M946),A946=M946))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A946">
+    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q946),Q946))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M946),ISBLANK(O946)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C946:I946">
+    <cfRule type="expression" dxfId="25" priority="13" stopIfTrue="1">
+      <formula>$J946&gt;COLUMN(C946)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M946">
+    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M946)),IF(ISERROR(A946),ERROR.TYPE(A946)=ERROR.TYPE(M946),A946=M946))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A946">
+    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q946),Q946))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="11" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M946),ISBLANK(O946)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C946:I946">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+      <formula>$J946&gt;COLUMN(C946)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M946">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M946)),IF(ISERROR(A946),ERROR.TYPE(A946)=ERROR.TYPE(M946),A946=M946))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A946">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q946),Q946))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M946),ISBLANK(O946)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A946">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+      <formula>NOT(OR(ISBLANK(Q946),Q946))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+      <formula>NOT(AND(ISBLANK(M946),ISBLANK(O946)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C946:I946">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>$J946&gt;COLUMN(C946)-3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M946">
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M946)),IF(ISERROR(A946),ERROR.TYPE(A946)=ERROR.TYPE(M946),A946=M946))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M946">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK(M946)),IF(ISERROR(A946),ERROR.TYPE(A946)=ERROR.TYPE(M946),A946=M946))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
